--- a/Excels/Configuration.xlsx
+++ b/Excels/Configuration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Cosas\workspace4\KinCartaDemo2\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Cosas\workspace4\SeleniumDemo\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A5E12-5037-4EAA-8EF1-54744A635CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F5AEF4-D58F-4685-9968-B26F335C1A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="15405" windowHeight="10920" xr2:uid="{4E7630BD-D51E-496A-85DB-A8BFC7306F33}"/>
   </bookViews>
@@ -168,60 +168,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1704975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Kin + Carta | LinkedIn">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA32480-F078-4828-B05A-24B694F17E4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7A85DE-8F07-4ED3-9932-8B507FB5CE9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="0"/>
-          <a:ext cx="1704975" cy="771525"/>
+          <a:off x="2209800" y="114300"/>
+          <a:ext cx="3152775" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
